--- a/菌名中英文摘录.xlsx
+++ b/菌名中英文摘录.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CA7D4DF-1737-403B-BD69-B8E95834605A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA7301F8-9513-45B8-A410-A364D06EAD58}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="723" uniqueCount="716">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="770" uniqueCount="719">
   <si>
     <t>消化链球菌属</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2338,6 +2338,18 @@
   </si>
   <si>
     <t>口腔杆菌属</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2688,8 +2700,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J525"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="F56" sqref="F56"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="G51" sqref="G51:H57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3192,6 +3204,9 @@
       <c r="B19" t="s">
         <v>685</v>
       </c>
+      <c r="E19" t="s">
+        <v>717</v>
+      </c>
       <c r="G19" t="s">
         <v>25</v>
       </c>
@@ -3209,6 +3224,12 @@
       <c r="B20" t="s">
         <v>687</v>
       </c>
+      <c r="E20" t="s">
+        <v>116</v>
+      </c>
+      <c r="F20" t="s">
+        <v>115</v>
+      </c>
       <c r="G20" t="s">
         <v>19</v>
       </c>
@@ -3226,6 +3247,12 @@
       <c r="B21" t="s">
         <v>699</v>
       </c>
+      <c r="E21" t="s">
+        <v>108</v>
+      </c>
+      <c r="F21" t="s">
+        <v>107</v>
+      </c>
       <c r="G21" t="s">
         <v>3</v>
       </c>
@@ -3237,6 +3264,15 @@
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>716</v>
+      </c>
+      <c r="E22" t="s">
+        <v>142</v>
+      </c>
+      <c r="F22" t="s">
+        <v>143</v>
+      </c>
       <c r="G22" t="s">
         <v>1</v>
       </c>
@@ -3248,6 +3284,18 @@
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>59</v>
+      </c>
+      <c r="B23" t="s">
+        <v>73</v>
+      </c>
+      <c r="E23" t="s">
+        <v>106</v>
+      </c>
+      <c r="F23" t="s">
+        <v>105</v>
+      </c>
       <c r="G23" t="s">
         <v>5</v>
       </c>
@@ -3259,6 +3307,18 @@
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>59</v>
+      </c>
+      <c r="B24" t="s">
+        <v>120</v>
+      </c>
+      <c r="E24" t="s">
+        <v>702</v>
+      </c>
+      <c r="F24" t="s">
+        <v>703</v>
+      </c>
       <c r="G24" t="s">
         <v>7</v>
       </c>
@@ -3270,6 +3330,18 @@
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>153</v>
+      </c>
+      <c r="B25" t="s">
+        <v>154</v>
+      </c>
+      <c r="E25" t="s">
+        <v>708</v>
+      </c>
+      <c r="F25" t="s">
+        <v>709</v>
+      </c>
       <c r="G25" t="s">
         <v>29</v>
       </c>
@@ -3281,6 +3353,18 @@
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>76</v>
+      </c>
+      <c r="B26" t="s">
+        <v>75</v>
+      </c>
+      <c r="E26" t="s">
+        <v>710</v>
+      </c>
+      <c r="F26" t="s">
+        <v>711</v>
+      </c>
       <c r="G26" t="s">
         <v>32</v>
       </c>
@@ -3292,6 +3376,12 @@
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>682</v>
+      </c>
+      <c r="B27" t="s">
+        <v>683</v>
+      </c>
       <c r="G27" s="1" t="s">
         <v>35</v>
       </c>
@@ -3303,6 +3393,12 @@
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>684</v>
+      </c>
+      <c r="B28" t="s">
+        <v>685</v>
+      </c>
       <c r="G28" t="s">
         <v>84</v>
       </c>
@@ -3314,6 +3410,12 @@
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>686</v>
+      </c>
+      <c r="B29" t="s">
+        <v>687</v>
+      </c>
       <c r="G29" t="s">
         <v>87</v>
       </c>
@@ -3325,6 +3427,12 @@
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>698</v>
+      </c>
+      <c r="B30" t="s">
+        <v>699</v>
+      </c>
       <c r="G30" t="s">
         <v>16</v>
       </c>
@@ -3545,41 +3653,86 @@
       </c>
     </row>
     <row r="50" spans="7:9" x14ac:dyDescent="0.2">
+      <c r="G50" t="s">
+        <v>718</v>
+      </c>
       <c r="I50" s="4" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="51" spans="7:9" x14ac:dyDescent="0.2">
+      <c r="G51" t="s">
+        <v>695</v>
+      </c>
+      <c r="H51" t="s">
+        <v>694</v>
+      </c>
       <c r="I51" s="4" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="52" spans="7:9" x14ac:dyDescent="0.2">
+      <c r="G52" t="s">
+        <v>697</v>
+      </c>
+      <c r="H52" t="s">
+        <v>696</v>
+      </c>
       <c r="I52" s="4" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="53" spans="7:9" x14ac:dyDescent="0.2">
+      <c r="G53" t="s">
+        <v>701</v>
+      </c>
+      <c r="H53" t="s">
+        <v>700</v>
+      </c>
       <c r="I53" s="4" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="54" spans="7:9" x14ac:dyDescent="0.2">
+      <c r="G54" t="s">
+        <v>705</v>
+      </c>
+      <c r="H54" t="s">
+        <v>704</v>
+      </c>
       <c r="I54" s="4" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="55" spans="7:9" x14ac:dyDescent="0.2">
+      <c r="G55" t="s">
+        <v>706</v>
+      </c>
+      <c r="H55" t="s">
+        <v>707</v>
+      </c>
       <c r="I55" s="4" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="56" spans="7:9" x14ac:dyDescent="0.2">
+      <c r="G56" t="s">
+        <v>712</v>
+      </c>
+      <c r="H56" t="s">
+        <v>713</v>
+      </c>
       <c r="I56" s="4" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="57" spans="7:9" x14ac:dyDescent="0.2">
+      <c r="G57" t="s">
+        <v>714</v>
+      </c>
+      <c r="H57" t="s">
+        <v>715</v>
+      </c>
       <c r="I57" s="4" t="s">
         <v>213</v>
       </c>
@@ -5930,6 +6083,6 @@
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>